--- a/public/Data/homicidios cali.xlsx
+++ b/public/Data/homicidios cali.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\mapaCali\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2360C528-1D63-4FAC-A5D5-293F963EE2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08907FC4-6DA4-4546-AC89-888B991C9BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8EA6AF8D-2898-465C-B98A-AE4347EBCC21}"/>
   </bookViews>
@@ -125,9 +125,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +165,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -271,7 +271,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,7 +424,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,6 +481,9 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="H2">
         <v>15</v>
       </c>
@@ -510,6 +513,9 @@
       <c r="C3">
         <v>5</v>
       </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
       <c r="H3">
         <v>32</v>
       </c>
@@ -539,6 +545,9 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>37</v>
       </c>
@@ -568,6 +577,9 @@
       <c r="C5">
         <v>8</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="H5">
         <v>28</v>
       </c>
@@ -597,6 +609,9 @@
       <c r="C6">
         <v>6</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="H6">
         <v>12</v>
       </c>
@@ -626,6 +641,9 @@
       <c r="C7">
         <v>11</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="H7">
         <v>63</v>
       </c>
@@ -655,6 +673,9 @@
       <c r="C8">
         <v>3</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="H8">
         <v>44</v>
       </c>
@@ -684,6 +705,9 @@
       <c r="C9">
         <v>7</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="H9">
         <v>38</v>
       </c>
@@ -713,6 +737,9 @@
       <c r="C10">
         <v>2</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="H10">
         <v>53</v>
       </c>
@@ -812,6 +839,9 @@
       <c r="C13">
         <v>0</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="H13">
         <v>33</v>
       </c>
@@ -876,6 +906,9 @@
       <c r="C15">
         <v>7</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="H15">
         <v>117</v>
       </c>
@@ -1114,6 +1147,9 @@
       </c>
       <c r="C22">
         <v>5</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="H22">
         <v>99</v>

--- a/public/Data/homicidios cali.xlsx
+++ b/public/Data/homicidios cali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\mapaCali\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08907FC4-6DA4-4546-AC89-888B991C9BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB388BBF-D73A-4BEE-B452-165F6E587658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8EA6AF8D-2898-465C-B98A-AE4347EBCC21}"/>
   </bookViews>
@@ -73,7 +73,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,16 +109,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658F4630-C9E3-4759-AA70-D8C4EFE3A7D4}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -674,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>44</v>
@@ -706,7 +719,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>38</v>
@@ -770,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -872,7 +885,7 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -974,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1009,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1044,7 +1057,7 @@
         <v>4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1181,7 +1194,7 @@
         <v>11</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -1204,6 +1217,9 @@
       <c r="M23">
         <v>4</v>
       </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
